--- a/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,255 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r491195261-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>8516391</t>
+  </si>
+  <si>
+    <t>491195261</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Great newer frequent-traveler hotel</t>
+  </si>
+  <si>
+    <t>A nice Staybridge Suites with spacious, clean, well-appointed rooms. Yes, it's right on the freeway, but it's relatively quiet and I'm a very light sleeper. One of the best night's sleeps away from home I've had in a while. Didn't try any of their food or social events, but did use my DoorDash app to order some dinner from a nearby restaurant and didn't experience any hiccups. AC unit was fairly quiet, I didn't hear anything from other rooms, and I was on the first floor facing a busy side street. I'd imagine if you got a room facing the freeway the noise would be bad, so if you're a light sleeper, avoid that. Otherwise, I'd say this is a very good choice for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>A nice Staybridge Suites with spacious, clean, well-appointed rooms. Yes, it's right on the freeway, but it's relatively quiet and I'm a very light sleeper. One of the best night's sleeps away from home I've had in a while. Didn't try any of their food or social events, but did use my DoorDash app to order some dinner from a nearby restaurant and didn't experience any hiccups. AC unit was fairly quiet, I didn't hear anything from other rooms, and I was on the first floor facing a busy side street. I'd imagine if you got a room facing the freeway the noise would be bad, so if you're a light sleeper, avoid that. Otherwise, I'd say this is a very good choice for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r485104824-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>485104824</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>Stayed here recently and was pleasantly surprised.  As someone else mentioned, it is tricky to get to, but as construction is completed I have to imagine that things will be much better.  The front desk staff is very kind and helpful and the rooms are large and comfortable.  My rate was much lower than I would have thought after seeing the room.  There are lots of dining options nearby (within walking distance).  If I had to book somewhere for an extended stay I would certainly consider this hotel.  The only thing that i worry about is noise.  There is a lot of open land "behind" the hotel; if development continues to occur, I fear that traffic noise might become an issue.  Overall a pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Stayed here recently and was pleasantly surprised.  As someone else mentioned, it is tricky to get to, but as construction is completed I have to imagine that things will be much better.  The front desk staff is very kind and helpful and the rooms are large and comfortable.  My rate was much lower than I would have thought after seeing the room.  There are lots of dining options nearby (within walking distance).  If I had to book somewhere for an extended stay I would certainly consider this hotel.  The only thing that i worry about is noise.  There is a lot of open land "behind" the hotel; if development continues to occur, I fear that traffic noise might become an issue.  Overall a pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r481309312-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>481309312</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Wow.</t>
+  </si>
+  <si>
+    <t>I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. 
+As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub...I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub and thought this was it. Thank goodness it was my last night. Upon leaving I was greeted with "Have a nice day" not even a single how was your stay? Or how was the room? Very disappointed with me paying over 200 dollars for 2 nights and finding all of these unwanted disgusting things in the room made my stay horrible. As we proceeded to get in the car and leave I look down and find what I believe is pet hair all over my clothes, clothes I hadn't even worn while I was there. This experience is one I will never forget!!!! Bee PhoutthavongMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. 
+As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub...I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub and thought this was it. Thank goodness it was my last night. Upon leaving I was greeted with "Have a nice day" not even a single how was your stay? Or how was the room? Very disappointed with me paying over 200 dollars for 2 nights and finding all of these unwanted disgusting things in the room made my stay horrible. As we proceeded to get in the car and leave I look down and find what I believe is pet hair all over my clothes, clothes I hadn't even worn while I was there. This experience is one I will never forget!!!! Bee PhoutthavongMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r450196029-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>450196029</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Great home away from home!</t>
+  </si>
+  <si>
+    <t>Staying here with my dog for a weekend and I love this place! Clean, comfortable, very well appointed.  The kitchenette has everything - dishes, utensils, pots and pans.  They even have salt, pepper and sweeteners.  The bathroom is nice (so happy there is a tub and a shower) and the towels are great.  It would be very easy to stay here for an extended time.  There is a lovely pool and BBQ area, but it's in the 20's right now so I'm not using those areas.  Good areas to walk the dog, pet waste stations with bags.  There is a two dog limit, 80 pound limit, and a refundable pet deposit of $75 per dog. Fitness center, laundry room, nice dining area and they offer free breakfast every morning and Mon-Wed there is a social hour including food (not sure if that is included in the room rate).  Because of my dog I brought all my own food so I didn't go to breakfast, but it certainly looks nice.  There is also a good selection of food and drink for purchase that you can stock your room with.  Staff is friendly and helpful.  I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Staying here with my dog for a weekend and I love this place! Clean, comfortable, very well appointed.  The kitchenette has everything - dishes, utensils, pots and pans.  They even have salt, pepper and sweeteners.  The bathroom is nice (so happy there is a tub and a shower) and the towels are great.  It would be very easy to stay here for an extended time.  There is a lovely pool and BBQ area, but it's in the 20's right now so I'm not using those areas.  Good areas to walk the dog, pet waste stations with bags.  There is a two dog limit, 80 pound limit, and a refundable pet deposit of $75 per dog. Fitness center, laundry room, nice dining area and they offer free breakfast every morning and Mon-Wed there is a social hour including food (not sure if that is included in the room rate).  Because of my dog I brought all my own food so I didn't go to breakfast, but it certainly looks nice.  There is also a good selection of food and drink for purchase that you can stock your room with.  Staff is friendly and helpful.  I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r440081496-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>440081496</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend Getaway </t>
+  </si>
+  <si>
+    <t>We stayed here 11/24 11/25. This hotel is not the one pictured on Ta. This hotel is immaculate,very nice, no smoking except in designated areas outside . Rooms have all the amenities like home, kitchen has cooking pots  pans ,utensils, dishes, etc. The bad is we were in room 216 the first night, very noisy from traffic. This hotel is so close to N. freeway hwy (35W). So we requested a room change, Brittany at the front desk is a jewel,  she went above and beyond  to accommodate us. She got us room 302 which was much quieter,we got sleep! They do serve a decent breakfast. Here are some pics of the hotel (Fossil Creek).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We stayed here 11/24 11/25. This hotel is not the one pictured on Ta. This hotel is immaculate,very nice, no smoking except in designated areas outside . Rooms have all the amenities like home, kitchen has cooking pots  pans ,utensils, dishes, etc. The bad is we were in room 216 the first night, very noisy from traffic. This hotel is so close to N. freeway hwy (35W). So we requested a room change, Brittany at the front desk is a jewel,  she went above and beyond  to accommodate us. She got us room 302 which was much quieter,we got sleep! They do serve a decent breakfast. Here are some pics of the hotel (Fossil Creek).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r423323720-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>423323720</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new hotel </t>
+  </si>
+  <si>
+    <t>Nice new hotel with some minor issues.  The rooms are very modern and clean.  I have stayed at this hotel 3 times since it opened this year.  This most recent stay was in room 205.  This is the worst room at this hotel.  It is right above the laundry and workout room.  Doors from the laundry room slam and you can hear and feel it late into the evening. Also your view out the window is of a wall!  I like to stay at Staybridges for the evening "social hour" that has food and drinks.  It's a nice touch.  Overall this is a nice property, very clean and modern.  The proximity to I35W is nice but noisy with all of the construction currently going on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel with some minor issues.  The rooms are very modern and clean.  I have stayed at this hotel 3 times since it opened this year.  This most recent stay was in room 205.  This is the worst room at this hotel.  It is right above the laundry and workout room.  Doors from the laundry room slam and you can hear and feel it late into the evening. Also your view out the window is of a wall!  I like to stay at Staybridges for the evening "social hour" that has food and drinks.  It's a nice touch.  Overall this is a nice property, very clean and modern.  The proximity to I35W is nice but noisy with all of the construction currently going on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r415931849-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>415931849</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Stainless steel appliances in your room.Special request top floor away from elevator done.Manager brought me a waste basket.Front desk person awesome.Brand new hotel.....Stay here!!!  Great location too...lots of resturants.Furniture is awesome.Potato bar and free drinks tonight.MoreShow less</t>
+  </si>
+  <si>
+    <t>123Laurie58, Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Stainless steel appliances in your room.Special request top floor away from elevator done.Manager brought me a waste basket.Front desk person awesome.Brand new hotel.....Stay here!!!  Great location too...lots of resturants.Furniture is awesome.Potato bar and free drinks tonight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r378245136-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>378245136</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>11 night stay</t>
+  </si>
+  <si>
+    <t>We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  
+We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!
+The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  
+The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!
+The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  
+Overall we had a great experience...We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  Overall we had a great experience and we will definitely return when we visit the area again.  Great for families or business travelers - I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  
+We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!
+The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  
+The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!
+The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  
+Overall we had a great experience...We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  Overall we had a great experience and we will definitely return when we visit the area again.  Great for families or business travelers - I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r374111386-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>374111386</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable</t>
+  </si>
+  <si>
+    <t>I was greeted as soon as I entered the foyer.  My reservation was correct.  The clerk was pleasant and asked if she could help me with anything while I was here.  My room was clean without the "cleaning smell".  The pillows were big not the usual little ones in most places.  The air conditioner and TV worked!  I was alone on this trip but the room would be very comfortable for two and children.  Well stocked kitchen.  My check out was great and they even asked if there was anything they could have done to make my visit better.  They seemed as if they cared.MoreShow less</t>
+  </si>
+  <si>
+    <t>123Laurie58, General Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>I was greeted as soon as I entered the foyer.  My reservation was correct.  The clerk was pleasant and asked if she could help me with anything while I was here.  My room was clean without the "cleaning smell".  The pillows were big not the usual little ones in most places.  The air conditioner and TV worked!  I was alone on this trip but the room would be very comfortable for two and children.  Well stocked kitchen.  My check out was great and they even asked if there was anything they could have done to make my visit better.  They seemed as if they cared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r315642858-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>315642858</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>More beer to save our study</t>
+  </si>
+  <si>
+    <t>I stayed here for business training from my office. This place is a perfect place to stay. Nice and good-looking officer, complete facility and easy to find. The minus is just the location. It's far from anywhere, especially place to entertain. Fortunately, this hotel always gives free beer every friday so we can't deny that we satisfy enough with the service.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
 </sst>
 </file>
@@ -645,6 +894,614 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ibsf7777</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>A nice Staybridge Suites with spacious, clean, well-appointed rooms. Yes, it's right on the freeway, but it's relatively quiet and I'm a very light sleeper. One of the best night's sleeps away from home I've had in a while. Didn't try any of their food or social events, but did use my DoorDash app to order some dinner from a nearby restaurant and didn't experience any hiccups. AC unit was fairly quiet, I didn't hear anything from other rooms, and I was on the first floor facing a busy side street. I'd imagine if you got a room facing the freeway the noise would be bad, so if you're a light sleeper, avoid that. Otherwise, I'd say this is a very good choice for the area.More</t>
   </si>
   <si>
+    <t>DLNOLA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r485104824-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
   </si>
   <si>
     <t>Stayed here recently and was pleasantly surprised.  As someone else mentioned, it is tricky to get to, but as construction is completed I have to imagine that things will be much better.  The front desk staff is very kind and helpful and the rooms are large and comfortable.  My rate was much lower than I would have thought after seeing the room.  There are lots of dining options nearby (within walking distance).  If I had to book somewhere for an extended stay I would certainly consider this hotel.  The only thing that i worry about is noise.  There is a lot of open land "behind" the hotel; if development continues to occur, I fear that traffic noise might become an issue.  Overall a pleasant stay!More</t>
+  </si>
+  <si>
+    <t>BPhoutthavong</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r481309312-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -230,6 +239,9 @@
 As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub...I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub and thought this was it. Thank goodness it was my last night. Upon leaving I was greeted with "Have a nice day" not even a single how was your stay? Or how was the room? Very disappointed with me paying over 200 dollars for 2 nights and finding all of these unwanted disgusting things in the room made my stay horrible. As we proceeded to get in the car and leave I look down and find what I believe is pet hair all over my clothes, clothes I hadn't even worn while I was there. This experience is one I will never forget!!!! Bee PhoutthavongMore</t>
   </si>
   <si>
+    <t>Luci D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r450196029-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
     <t>Staying here with my dog for a weekend and I love this place! Clean, comfortable, very well appointed.  The kitchenette has everything - dishes, utensils, pots and pans.  They even have salt, pepper and sweeteners.  The bathroom is nice (so happy there is a tub and a shower) and the towels are great.  It would be very easy to stay here for an extended time.  There is a lovely pool and BBQ area, but it's in the 20's right now so I'm not using those areas.  Good areas to walk the dog, pet waste stations with bags.  There is a two dog limit, 80 pound limit, and a refundable pet deposit of $75 per dog. Fitness center, laundry room, nice dining area and they offer free breakfast every morning and Mon-Wed there is a social hour including food (not sure if that is included in the room rate).  Because of my dog I brought all my own food so I didn't go to breakfast, but it certainly looks nice.  There is also a good selection of food and drink for purchase that you can stock your room with.  Staff is friendly and helpful.  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>MG7210</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r440081496-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>We stayed here 11/24 11/25. This hotel is not the one pictured on Ta. This hotel is immaculate,very nice, no smoking except in designated areas outside . Rooms have all the amenities like home, kitchen has cooking pots  pans ,utensils, dishes, etc. The bad is we were in room 216 the first night, very noisy from traffic. This hotel is so close to N. freeway hwy (35W). So we requested a room change, Brittany at the front desk is a jewel,  she went above and beyond  to accommodate us. She got us room 302 which was much quieter,we got sleep! They do serve a decent breakfast. Here are some pics of the hotel (Fossil Creek).More</t>
   </si>
   <si>
+    <t>paulpryor585</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r423323720-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t>Nice new hotel with some minor issues.  The rooms are very modern and clean.  I have stayed at this hotel 3 times since it opened this year.  This most recent stay was in room 205.  This is the worst room at this hotel.  It is right above the laundry and workout room.  Doors from the laundry room slam and you can hear and feel it late into the evening. Also your view out the window is of a wall!  I like to stay at Staybridges for the evening "social hour" that has food and drinks.  It's a nice touch.  Overall this is a nice property, very clean and modern.  The proximity to I35W is nice but noisy with all of the construction currently going on.More</t>
   </si>
   <si>
+    <t>forcoli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r415931849-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
   </si>
   <si>
     <t>Stainless steel appliances in your room.Special request top floor away from elevator done.Manager brought me a waste basket.Front desk person awesome.Brand new hotel.....Stay here!!!  Great location too...lots of resturants.Furniture is awesome.Potato bar and free drinks tonight.More</t>
+  </si>
+  <si>
+    <t>Daniel S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r378245136-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -354,6 +378,9 @@
 Overall we had a great experience...We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  Overall we had a great experience and we will definitely return when we visit the area again.  Great for families or business travelers - I highly recommend it.More</t>
   </si>
   <si>
+    <t>Phillis G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r374111386-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -376,6 +403,9 @@
   </si>
   <si>
     <t>I was greeted as soon as I entered the foyer.  My reservation was correct.  The clerk was pleasant and asked if she could help me with anything while I was here.  My room was clean without the "cleaning smell".  The pillows were big not the usual little ones in most places.  The air conditioner and TV worked!  I was alone on this trip but the room would be very comfortable for two and children.  Well stocked kitchen.  My check out was great and they even asked if there was anything they could have done to make my visit better.  They seemed as if they cared.More</t>
+  </si>
+  <si>
+    <t>mahardikac</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r315642858-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -898,43 +928,47 @@
       <c r="A2" t="n">
         <v>64482</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178030</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -952,56 +986,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64482</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178031</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1019,50 +1057,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64482</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178032</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1076,50 +1118,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64482</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1139,50 +1185,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64482</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>63903</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1196,50 +1246,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64482</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178034</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1253,50 +1307,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64482</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1308,56 +1366,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64482</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1375,50 +1437,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64482</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1436,56 +1502,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64482</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1499,7 +1569,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_700.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,125 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>ibsf7777</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r601821595-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>8516391</t>
+  </si>
+  <si>
+    <t>601821595</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>No daily service and Double charged !</t>
+  </si>
+  <si>
+    <t>18 July - 27 July 2018
++The hotel was nice and quiet, was given a clean and spacious room.
+- During my stay, my room was never cleaned by the cleaning staff and on my confirmation email is stating clearly Daily Housekeeping. On the sink, in the bathroom, I noticed a card saying that once you stay longer than 7 days, the room will be cleaned only once.On my last day, the housekeeper knocked my door in the morning around 9am, when I wasn't ready to leave yet. As I know, on the check out day, the cleaning is done after the hotel standard check out time (which is 11am). 
+Now I'm waiting for a refund for the service I paid for and didn't get.
+- The day before my check out, I went to the reception and I asked her if I can pay for my stay as I didn't want to waste any time around there, just go straight to the airport. She said no problem, in 2min she gave me the receipt, without asking for my credit card. The next day, around 10am I checked out, and also reminded them that I paid already the day before. Now, after 2 days of calling the bank and arguing with them regarding my account ballance, I noticed I HAVE BEEN CHARGED TWICE !! Once showing as POS Staybridge and second as POS IHG ! I never thought it's possible...18 July - 27 July 2018+The hotel was nice and quiet, was given a clean and spacious room.- During my stay, my room was never cleaned by the cleaning staff and on my confirmation email is stating clearly Daily Housekeeping. On the sink, in the bathroom, I noticed a card saying that once you stay longer than 7 days, the room will be cleaned only once.On my last day, the housekeeper knocked my door in the morning around 9am, when I wasn't ready to leave yet. As I know, on the check out day, the cleaning is done after the hotel standard check out time (which is 11am). Now I'm waiting for a refund for the service I paid for and didn't get.- The day before my check out, I went to the reception and I asked her if I can pay for my stay as I didn't want to waste any time around there, just go straight to the airport. She said no problem, in 2min she gave me the receipt, without asking for my credit card. The next day, around 10am I checked out, and also reminded them that I paid already the day before. Now, after 2 days of calling the bank and arguing with them regarding my account ballance, I noticed I HAVE BEEN CHARGED TWICE !! Once showing as POS Staybridge and second as POS IHG ! I never thought it's possible to be charged twice for the same stay...which was over 1,000 euro ! I recommend to everyone to check their bank accounts once they stay here.Once I got home, my account was left on 0.00 euro because of this double charge, when I knew I have sufficient funds for other important payments.Still can't understand how was it possible!Waiting for an explanation how can none of the staff notice the mistake in their system.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>18 July - 27 July 2018
++The hotel was nice and quiet, was given a clean and spacious room.
+- During my stay, my room was never cleaned by the cleaning staff and on my confirmation email is stating clearly Daily Housekeeping. On the sink, in the bathroom, I noticed a card saying that once you stay longer than 7 days, the room will be cleaned only once.On my last day, the housekeeper knocked my door in the morning around 9am, when I wasn't ready to leave yet. As I know, on the check out day, the cleaning is done after the hotel standard check out time (which is 11am). 
+Now I'm waiting for a refund for the service I paid for and didn't get.
+- The day before my check out, I went to the reception and I asked her if I can pay for my stay as I didn't want to waste any time around there, just go straight to the airport. She said no problem, in 2min she gave me the receipt, without asking for my credit card. The next day, around 10am I checked out, and also reminded them that I paid already the day before. Now, after 2 days of calling the bank and arguing with them regarding my account ballance, I noticed I HAVE BEEN CHARGED TWICE !! Once showing as POS Staybridge and second as POS IHG ! I never thought it's possible...18 July - 27 July 2018+The hotel was nice and quiet, was given a clean and spacious room.- During my stay, my room was never cleaned by the cleaning staff and on my confirmation email is stating clearly Daily Housekeeping. On the sink, in the bathroom, I noticed a card saying that once you stay longer than 7 days, the room will be cleaned only once.On my last day, the housekeeper knocked my door in the morning around 9am, when I wasn't ready to leave yet. As I know, on the check out day, the cleaning is done after the hotel standard check out time (which is 11am). Now I'm waiting for a refund for the service I paid for and didn't get.- The day before my check out, I went to the reception and I asked her if I can pay for my stay as I didn't want to waste any time around there, just go straight to the airport. She said no problem, in 2min she gave me the receipt, without asking for my credit card. The next day, around 10am I checked out, and also reminded them that I paid already the day before. Now, after 2 days of calling the bank and arguing with them regarding my account ballance, I noticed I HAVE BEEN CHARGED TWICE !! Once showing as POS Staybridge and second as POS IHG ! I never thought it's possible to be charged twice for the same stay...which was over 1,000 euro ! I recommend to everyone to check their bank accounts once they stay here.Once I got home, my account was left on 0.00 euro because of this double charge, when I knew I have sufficient funds for other important payments.Still can't understand how was it possible!Waiting for an explanation how can none of the staff notice the mistake in their system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r559771280-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>559771280</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and had excellent customer service.  The front desk clerk called after check in to confirm that we were satisfied with the room and if we needed anything else.  I felt that was a nice touch!  The hotel is clearly new and close to restaurants and shopping.  I felt that it was reasonably priced for the amnities provided.  I would definitely recommend Staybridge and will stay here if in the area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Melissa M, Guest Relations Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and had excellent customer service.  The front desk clerk called after check in to confirm that we were satisfied with the room and if we needed anything else.  I felt that was a nice touch!  The hotel is clearly new and close to restaurants and shopping.  I felt that it was reasonably priced for the amnities provided.  I would definitely recommend Staybridge and will stay here if in the area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r597189715-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597189715</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms, pleasant stay</t>
+  </si>
+  <si>
+    <t>The front desk was very nice and helpful for a late booking for two rooms. I appreciate that. A very good value and I would stay there again. We enjoyed using the outdoor swimming pool which was stocked with towels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r551036704-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>551036704</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Staff were helpful and friendly.   Rooms seem new   Lots of Restaurant choices close by.   Nice breakfast.  The WiFi was really strong.  The only negative was that there is garbage in the hallways because no one empties the garbage.    Two of the four washing machines were out of order.  Overall I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Melissa M, Guest Relations Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Staff were helpful and friendly.   Rooms seem new   Lots of Restaurant choices close by.   Nice breakfast.  The WiFi was really strong.  The only negative was that there is garbage in the hallways because no one empties the garbage.    Two of the four washing machines were out of order.  Overall I would recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r491195261-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>8516391</t>
-  </si>
-  <si>
     <t>491195261</t>
   </si>
   <si>
@@ -177,9 +281,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Management response:Responded August 18, 2017</t>
   </si>
   <si>
@@ -189,9 +290,6 @@
     <t>A nice Staybridge Suites with spacious, clean, well-appointed rooms. Yes, it's right on the freeway, but it's relatively quiet and I'm a very light sleeper. One of the best night's sleeps away from home I've had in a while. Didn't try any of their food or social events, but did use my DoorDash app to order some dinner from a nearby restaurant and didn't experience any hiccups. AC unit was fairly quiet, I didn't hear anything from other rooms, and I was on the first floor facing a busy side street. I'd imagine if you got a room facing the freeway the noise would be bad, so if you're a light sleeper, avoid that. Otherwise, I'd say this is a very good choice for the area.More</t>
   </si>
   <si>
-    <t>DLNOLA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r485104824-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -211,9 +309,6 @@
   </si>
   <si>
     <t>Stayed here recently and was pleasantly surprised.  As someone else mentioned, it is tricky to get to, but as construction is completed I have to imagine that things will be much better.  The front desk staff is very kind and helpful and the rooms are large and comfortable.  My rate was much lower than I would have thought after seeing the room.  There are lots of dining options nearby (within walking distance).  If I had to book somewhere for an extended stay I would certainly consider this hotel.  The only thing that i worry about is noise.  There is a lot of open land "behind" the hotel; if development continues to occur, I fear that traffic noise might become an issue.  Overall a pleasant stay!More</t>
-  </si>
-  <si>
-    <t>BPhoutthavong</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r481309312-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -232,14 +327,44 @@
 As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub...I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub and thought this was it. Thank goodness it was my last night. Upon leaving I was greeted with "Have a nice day" not even a single how was your stay? Or how was the room? Very disappointed with me paying over 200 dollars for 2 nights and finding all of these unwanted disgusting things in the room made my stay horrible. As we proceeded to get in the car and leave I look down and find what I believe is pet hair all over my clothes, clothes I hadn't even worn while I was there. This experience is one I will never forget!!!! Bee PhoutthavongMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. 
 As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub...I arrived on April 28, 2017 and stayed for 2 nights. Check in lady was very pleasant and helpful, I asked a few questions concerning nearby cities since I was there for pleasure and was given information very quick and easy. As we were walking in the room I thought wow this room was well worth the money being close to the festival as well as nearby restaurants, until I started unpacking. I sat down on the floor next to the computer table and at glance I found a nasty toothpick on the corner of the chair and stuck to the computer chair was a glob of about 5 different hair colors. DISGUSTING. I thought to myself I'm only here for 2 nights just brush it off so I did. I went to take a shower and as I was getting in the shower look on the back bottom of the tub to find more hair!!!! Where is all of this hair coming from sure not from me since I was the first one about to take a shower, here I go again letting these minor things to me go I've stayed in Hotels all over and I understand what needs to be done but I felt like the quality check of the room was not up to par. Later that evening I went to the bathroom to find 5-10 ants traveling all over the bath mat around the tub and thought this was it. Thank goodness it was my last night. Upon leaving I was greeted with "Have a nice day" not even a single how was your stay? Or how was the room? Very disappointed with me paying over 200 dollars for 2 nights and finding all of these unwanted disgusting things in the room made my stay horrible. As we proceeded to get in the car and leave I look down and find what I believe is pet hair all over my clothes, clothes I hadn't even worn while I was there. This experience is one I will never forget!!!! Bee PhoutthavongMore</t>
   </si>
   <si>
-    <t>Luci D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r469409328-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>469409328</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Last minute stay, everything perfect</t>
+  </si>
+  <si>
+    <t>My family needed a quick place to stay while our house interior was being painted.   A last minute reservation was handle quickly and with no fuss. The room was large, smoke-free, well lit, and all the details were in place.  We literally lacked for nothing.  The staff was pleasant and the morning breakfast one of the better that I've had.  The food was fresh, good selection, and the seating area was roomy with a variety of seating types from small tables to a high bar-type area.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r454336174-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>454336174</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>So New the Access Roads are Still Under Construction</t>
+  </si>
+  <si>
+    <t>This is a brand-new Staybridge Suites along the Southbound service drive for the North Freeway. While currently a little bit tricky to locate, the new building makes it work the trouble. I really like the Staybridge Suites brand but this is not the best example I have visited. While the rooms were new and standard offerings for the chain I was disappointed with the breakfast. While the morning offerings are usually a strong point for this chain, I faced watery oatmeal, powdered scrambled eggs and boiled coffee. The fruit and baked goods were very good and the housekeeping staff are very accommodating.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r450196029-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -257,18 +382,12 @@
     <t>Staying here with my dog for a weekend and I love this place! Clean, comfortable, very well appointed.  The kitchenette has everything - dishes, utensils, pots and pans.  They even have salt, pepper and sweeteners.  The bathroom is nice (so happy there is a tub and a shower) and the towels are great.  It would be very easy to stay here for an extended time.  There is a lovely pool and BBQ area, but it's in the 20's right now so I'm not using those areas.  Good areas to walk the dog, pet waste stations with bags.  There is a two dog limit, 80 pound limit, and a refundable pet deposit of $75 per dog. Fitness center, laundry room, nice dining area and they offer free breakfast every morning and Mon-Wed there is a social hour including food (not sure if that is included in the room rate).  Because of my dog I brought all my own food so I didn't go to breakfast, but it certainly looks nice.  There is also a good selection of food and drink for purchase that you can stock your room with.  Staff is friendly and helpful.  I will definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>Staying here with my dog for a weekend and I love this place! Clean, comfortable, very well appointed.  The kitchenette has everything - dishes, utensils, pots and pans.  They even have salt, pepper and sweeteners.  The bathroom is nice (so happy there is a tub and a shower) and the towels are great.  It would be very easy to stay here for an extended time.  There is a lovely pool and BBQ area, but it's in the 20's right now so I'm not using those areas.  Good areas to walk the dog, pet waste stations with bags.  There is a two dog limit, 80 pound limit, and a refundable pet deposit of $75 per dog. Fitness center, laundry room, nice dining area and they offer free breakfast every morning and Mon-Wed there is a social hour including food (not sure if that is included in the room rate).  Because of my dog I brought all my own food so I didn't go to breakfast, but it certainly looks nice.  There is also a good selection of food and drink for purchase that you can stock your room with.  Staff is friendly and helpful.  I will definitely stay here again.More</t>
   </si>
   <si>
-    <t>MG7210</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r440081496-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -290,9 +409,6 @@
     <t>We stayed here 11/24 11/25. This hotel is not the one pictured on Ta. This hotel is immaculate,very nice, no smoking except in designated areas outside . Rooms have all the amenities like home, kitchen has cooking pots  pans ,utensils, dishes, etc. The bad is we were in room 216 the first night, very noisy from traffic. This hotel is so close to N. freeway hwy (35W). So we requested a room change, Brittany at the front desk is a jewel,  she went above and beyond  to accommodate us. She got us room 302 which was much quieter,we got sleep! They do serve a decent breakfast. Here are some pics of the hotel (Fossil Creek).More</t>
   </si>
   <si>
-    <t>paulpryor585</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r423323720-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -314,7 +430,34 @@
     <t>Nice new hotel with some minor issues.  The rooms are very modern and clean.  I have stayed at this hotel 3 times since it opened this year.  This most recent stay was in room 205.  This is the worst room at this hotel.  It is right above the laundry and workout room.  Doors from the laundry room slam and you can hear and feel it late into the evening. Also your view out the window is of a wall!  I like to stay at Staybridges for the evening "social hour" that has food and drinks.  It's a nice touch.  Overall this is a nice property, very clean and modern.  The proximity to I35W is nice but noisy with all of the construction currently going on.More</t>
   </si>
   <si>
-    <t>forcoli</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r421263374-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>421263374</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Wow!  This is really a nice place!</t>
+  </si>
+  <si>
+    <t>The hotel and people working there are really friendly.  The hotel opened this year and everything is like new.  The breakfast buffet is above what you would expect in other hotels that include breakfast in the rate.  A lot of choices.  The rooms were clean and the beds comfortable.  I will stay there the next time I am in Ft. Worth.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r417667209-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>417667209</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Could be a four star hotel!</t>
+  </si>
+  <si>
+    <t>Wow!  This hotel is beautiful!  The staff is outstanding when it come to customer service.  I think my favorite thing though is the showers in the rooms have a temperature gauge on the handle that turns them one (Delta Faucets).  The showers go up to 120 degrees; at least mine did.  It was wonderful.  I can't say enough good things about this hotel.  We'll be back!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r415931849-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -339,9 +482,6 @@
   </si>
   <si>
     <t>Stainless steel appliances in your room.Special request top floor away from elevator done.Manager brought me a waste basket.Front desk person awesome.Brand new hotel.....Stay here!!!  Great location too...lots of resturants.Furniture is awesome.Potato bar and free drinks tonight.More</t>
-  </si>
-  <si>
-    <t>Daniel S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r378245136-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -367,9 +507,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  
 We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!
 The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  
@@ -378,9 +515,6 @@
 Overall we had a great experience...We stayed at the property for 11 nights, and we are very glad that we chose this hotel.  The suite was beautiful and had everything we needed to feel at home.  The kitchen was very nice and we were able to stock up on groceries with the full size fridge.  We had two infants with us, and the hotel provided cribs.  The bed was beyond comfortable - with infants we didn't get much sleep but when my head hit that pillow I was out!  I miss that mattress!The laundry room was great- free laundry and they were really nice new machines - very easy to use.  The pool looked nice but we didn't have a chance to use it.  Nice BBQ grills outside.  The front desk agents (Tammy) and another young girl that I cannot recall her name were so friendly and quick to smile.  Always willing to assist and make sure you are having a nice stay.  ***** 5 stars for that!The breakfast lady was also so nice, always smiling and making sure all items were stocked up.  I liked the eggs - I thought they were really good - and the omelettes were also really good - I was impressed with the free breakfast - thought it might just be bagels and cereal - it was GOOD.  Coffee was good too.  I really cannot say anything negative about the breakfast.  Overall we had a great experience and we will definitely return when we visit the area again.  Great for families or business travelers - I highly recommend it.More</t>
   </si>
   <si>
-    <t>Phillis G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r374111386-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,7 +539,60 @@
     <t>I was greeted as soon as I entered the foyer.  My reservation was correct.  The clerk was pleasant and asked if she could help me with anything while I was here.  My room was clean without the "cleaning smell".  The pillows were big not the usual little ones in most places.  The air conditioner and TV worked!  I was alone on this trip but the room would be very comfortable for two and children.  Well stocked kitchen.  My check out was great and they even asked if there was anything they could have done to make my visit better.  They seemed as if they cared.More</t>
   </si>
   <si>
-    <t>mahardikac</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r369842317-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>369842317</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>I got stuck overnight at DFW due to weather.  All the hotels near the airport were sold out and after 15hrs of sitting in the airport and getting on and off planes I just needed a quick place to sleep and shower. I wasn't up for camping on the floor at the airport.  The hotel was a very nice break from travelling,  and the staff was exceptional.  The front desk receptionist, Davincia, was very friendly and proffesional.  She went out of her way to help make sure my stay was a pleasant one.  The only room available was a hearing impaired room.  I ordered a wake up call,  but the phones in my room didn't work  so the front desk receptionist made sure I was awake at 630 when she slid the invoice under the door.  Just a warning,  if you never have slept in a hearing impaired room,  when someone rings the door bell there are strobe lights and it is VERY loud like a fire alarm buzzer. I wasn't prepared for that,  but i was definitely awake then.The breakfast was good and fresh.  The lady who made the breakfast,  greeted me right away and was friendly as well. I really don't have any complaints and would highly recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>123Laurie58, General Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>I got stuck overnight at DFW due to weather.  All the hotels near the airport were sold out and after 15hrs of sitting in the airport and getting on and off planes I just needed a quick place to sleep and shower. I wasn't up for camping on the floor at the airport.  The hotel was a very nice break from travelling,  and the staff was exceptional.  The front desk receptionist, Davincia, was very friendly and proffesional.  She went out of her way to help make sure my stay was a pleasant one.  The only room available was a hearing impaired room.  I ordered a wake up call,  but the phones in my room didn't work  so the front desk receptionist made sure I was awake at 630 when she slid the invoice under the door.  Just a warning,  if you never have slept in a hearing impaired room,  when someone rings the door bell there are strobe lights and it is VERY loud like a fire alarm buzzer. I wasn't prepared for that,  but i was definitely awake then.The breakfast was good and fresh.  The lady who made the breakfast,  greeted me right away and was friendly as well. I really don't have any complaints and would highly recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r363402608-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>363402608</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Nice, modern hotel. Needs some fine tuning.</t>
+  </si>
+  <si>
+    <t>The Good: I was here on business and stayed in the hotel for three weeks.  The hotel is brand new.  The rooms and décor are great, can't ask for more.  I appreciate tile work and modernity and this hotel has both. The staff was friendly.  They have a social hour every Mon - Weds between 5:30 - 7:30 PM and they give free food and alcoholic drinks. The breakfast is adequate and has decent variety.  There is a nice common area--living room of sorts with multiple TV's and has games.  There is also a business area so you can use their computer and some supplies. 
+The Bad: For breakfast they always have one of two types of eggs. Either egg and cheese omelets, which aren't bad.  Or scramble eggs, they must be powdered or frozen or something and are terrible. The fruit given at breakfast was in my opinion disgusting.  No matter if the fruit was cantaloupe, honeydew melon, or pineapple and strawberries, it all had this rusty tin can taste that just wasn't edible.  I noticed everyday the fruit was generally left untouched.  I don't understand how personnel hasn't notice the taste.  In my opinion cantaloupe and honeydew melon are the candy of the fruit world and most people will devour it when available.  Being that it is left behind everyday should tell you something.  These things are minor and do not affect my rating of this property.  The...The Good: I was here on business and stayed in the hotel for three weeks.  The hotel is brand new.  The rooms and décor are great, can't ask for more.  I appreciate tile work and modernity and this hotel has both. The staff was friendly.  They have a social hour every Mon - Weds between 5:30 - 7:30 PM and they give free food and alcoholic drinks. The breakfast is adequate and has decent variety.  There is a nice common area--living room of sorts with multiple TV's and has games.  There is also a business area so you can use their computer and some supplies. The Bad: For breakfast they always have one of two types of eggs. Either egg and cheese omelets, which aren't bad.  Or scramble eggs, they must be powdered or frozen or something and are terrible. The fruit given at breakfast was in my opinion disgusting.  No matter if the fruit was cantaloupe, honeydew melon, or pineapple and strawberries, it all had this rusty tin can taste that just wasn't edible.  I noticed everyday the fruit was generally left untouched.  I don't understand how personnel hasn't notice the taste.  In my opinion cantaloupe and honeydew melon are the candy of the fruit world and most people will devour it when available.  Being that it is left behind everyday should tell you something.  These things are minor and do not affect my rating of this property.  The next things do.My company vehicle was broken into while I was here and someone stole my printer.  This obviously is not the hotel's fault.  It appears to be in a good neighborhood, stuff happens. However, when I advised the hotel, of this they immediately called the police, which was nice.  My problem is that there were cameras pointing directly at my vehicle. Management admitted their should have been video available and told me their corporate office would contact to go over their findings.  Several times during my stay I told hotel personnel that I hadn't been contacted and I kept getting standard responses of 'I'll let my manager know.'  Also I spoke with the manager herself and again was told the same thing, to no avail.  Note: I noticed they put up a bunch of signs in the area where my vehicle was at during the break in, warning that cameras were present to would be thieves.  The ugly: The entire time I was there my toilet didn't function properly.  Sorry to be graphic, but I didn't even have to flush solid waste and it would clog.  I called the front desk multiple times and someone would temporally fix it, but that would only last two to three flushes and then would clog again.  The maintenance man told me that he had put a bunch of Liquid Plummer in the toilet to fix it.  Obviously there is something more going on then needing Liquid Plummer. At one point I reported my toilet not working and was told there was no maintenance person around on Weds (this was in the morning) and I would have to wait until the next day.  Seriously!  I had to wait over 24/hrs. to get service on my toilet at a hotel. Ridiculous!!  During the last 5 days I was there, I had to go down stairs to use the bathroom. My company easily spent 10 of thousands of dollars for many of us who were there. I would think we could get better service on a toilet that doesn't work. I would have given this hotel a five if not for these last two issues, as there is a lot of upside to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>123Laurie58, General Manager at Staybridge Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>The Good: I was here on business and stayed in the hotel for three weeks.  The hotel is brand new.  The rooms and décor are great, can't ask for more.  I appreciate tile work and modernity and this hotel has both. The staff was friendly.  They have a social hour every Mon - Weds between 5:30 - 7:30 PM and they give free food and alcoholic drinks. The breakfast is adequate and has decent variety.  There is a nice common area--living room of sorts with multiple TV's and has games.  There is also a business area so you can use their computer and some supplies. 
+The Bad: For breakfast they always have one of two types of eggs. Either egg and cheese omelets, which aren't bad.  Or scramble eggs, they must be powdered or frozen or something and are terrible. The fruit given at breakfast was in my opinion disgusting.  No matter if the fruit was cantaloupe, honeydew melon, or pineapple and strawberries, it all had this rusty tin can taste that just wasn't edible.  I noticed everyday the fruit was generally left untouched.  I don't understand how personnel hasn't notice the taste.  In my opinion cantaloupe and honeydew melon are the candy of the fruit world and most people will devour it when available.  Being that it is left behind everyday should tell you something.  These things are minor and do not affect my rating of this property.  The...The Good: I was here on business and stayed in the hotel for three weeks.  The hotel is brand new.  The rooms and décor are great, can't ask for more.  I appreciate tile work and modernity and this hotel has both. The staff was friendly.  They have a social hour every Mon - Weds between 5:30 - 7:30 PM and they give free food and alcoholic drinks. The breakfast is adequate and has decent variety.  There is a nice common area--living room of sorts with multiple TV's and has games.  There is also a business area so you can use their computer and some supplies. The Bad: For breakfast they always have one of two types of eggs. Either egg and cheese omelets, which aren't bad.  Or scramble eggs, they must be powdered or frozen or something and are terrible. The fruit given at breakfast was in my opinion disgusting.  No matter if the fruit was cantaloupe, honeydew melon, or pineapple and strawberries, it all had this rusty tin can taste that just wasn't edible.  I noticed everyday the fruit was generally left untouched.  I don't understand how personnel hasn't notice the taste.  In my opinion cantaloupe and honeydew melon are the candy of the fruit world and most people will devour it when available.  Being that it is left behind everyday should tell you something.  These things are minor and do not affect my rating of this property.  The next things do.My company vehicle was broken into while I was here and someone stole my printer.  This obviously is not the hotel's fault.  It appears to be in a good neighborhood, stuff happens. However, when I advised the hotel, of this they immediately called the police, which was nice.  My problem is that there were cameras pointing directly at my vehicle. Management admitted their should have been video available and told me their corporate office would contact to go over their findings.  Several times during my stay I told hotel personnel that I hadn't been contacted and I kept getting standard responses of 'I'll let my manager know.'  Also I spoke with the manager herself and again was told the same thing, to no avail.  Note: I noticed they put up a bunch of signs in the area where my vehicle was at during the break in, warning that cameras were present to would be thieves.  The ugly: The entire time I was there my toilet didn't function properly.  Sorry to be graphic, but I didn't even have to flush solid waste and it would clog.  I called the front desk multiple times and someone would temporally fix it, but that would only last two to three flushes and then would clog again.  The maintenance man told me that he had put a bunch of Liquid Plummer in the toilet to fix it.  Obviously there is something more going on then needing Liquid Plummer. At one point I reported my toilet not working and was told there was no maintenance person around on Weds (this was in the morning) and I would have to wait until the next day.  Seriously!  I had to wait over 24/hrs. to get service on my toilet at a hotel. Ridiculous!!  During the last 5 days I was there, I had to go down stairs to use the bathroom. My company easily spent 10 of thousands of dollars for many of us who were there. I would think we could get better service on a toilet that doesn't work. I would have given this hotel a five if not for these last two issues, as there is a lot of upside to this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d8516391-r315642858-Staybridge_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -928,433 +1115,419 @@
       <c r="A2" t="n">
         <v>64482</v>
       </c>
-      <c r="B2" t="n">
-        <v>178030</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64482</v>
       </c>
-      <c r="B3" t="n">
-        <v>178031</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64482</v>
       </c>
-      <c r="B4" t="n">
-        <v>178032</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64482</v>
       </c>
-      <c r="B5" t="n">
-        <v>178033</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64482</v>
       </c>
-      <c r="B6" t="n">
-        <v>63903</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64482</v>
       </c>
-      <c r="B7" t="n">
-        <v>178034</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64482</v>
       </c>
-      <c r="B8" t="n">
-        <v>178035</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1365,61 +1538,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64482</v>
       </c>
-      <c r="B9" t="n">
-        <v>757</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1437,139 +1602,751 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64482</v>
       </c>
-      <c r="B10" t="n">
-        <v>178036</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" t="s">
-        <v>123</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64482</v>
       </c>
-      <c r="B11" t="n">
-        <v>178037</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
         <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>173</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64482</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
